--- a/data/2015 Spring Season.xlsx
+++ b/data/2015 Spring Season.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Races" sheetId="46" r:id="rId1"/>
@@ -1121,9 +1121,6 @@
     <t>Kyle McKenney</t>
   </si>
   <si>
-    <t>Aleksandr Staprans</t>
-  </si>
-  <si>
     <t>Jonathan Dawson</t>
   </si>
   <si>
@@ -1299,6 +1296,9 @@
   </si>
   <si>
     <t>Aidan Daly-Jensen</t>
+  </si>
+  <si>
+    <t>Aleks Staprans</t>
   </si>
 </sst>
 </file>
@@ -1634,7 +1634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -6698,16 +6698,16 @@
         <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -6715,16 +6715,16 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -6732,16 +6732,16 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -6749,16 +6749,16 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -6766,16 +6766,16 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -6783,16 +6783,16 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -6800,16 +6800,16 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -6817,16 +6817,16 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -6834,16 +6834,16 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D19" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E19" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G19" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -8427,8 +8427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8682,10 +8682,10 @@
         <v>85</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>85</v>
@@ -10622,19 +10622,19 @@
         <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -10642,19 +10642,19 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -10662,19 +10662,19 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -10682,19 +10682,19 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -10702,19 +10702,19 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -10722,19 +10722,19 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D16" t="s">
+        <v>411</v>
+      </c>
+      <c r="F16" t="s">
         <v>412</v>
       </c>
-      <c r="F16" t="s">
-        <v>413</v>
-      </c>
       <c r="G16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -10742,19 +10742,19 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D17" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -10762,19 +10762,19 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -10782,19 +10782,19 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D19" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F19" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G19" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H19" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -11057,7 +11057,7 @@
   <dimension ref="A1:P69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11341,10 +11341,10 @@
         <v>353</v>
       </c>
       <c r="G12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -11358,7 +11358,7 @@
         <v>354</v>
       </c>
       <c r="E13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F13" t="s">
         <v>356</v>
@@ -11384,13 +11384,13 @@
         <v>355</v>
       </c>
       <c r="F14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -11404,16 +11404,16 @@
         <v>356</v>
       </c>
       <c r="E15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -11421,13 +11421,13 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>357</v>
+        <v>416</v>
       </c>
       <c r="D16" t="s">
-        <v>357</v>
+        <v>416</v>
       </c>
       <c r="E16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F16" t="s">
         <v>355</v>
@@ -11444,10 +11444,10 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E17" t="s">
         <v>354</v>
@@ -11456,10 +11456,10 @@
         <v>354</v>
       </c>
       <c r="G17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -11467,22 +11467,22 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E18" t="s">
         <v>356</v>
       </c>
       <c r="F18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G18" t="s">
-        <v>357</v>
+        <v>416</v>
       </c>
       <c r="J18" t="s">
-        <v>357</v>
+        <v>416</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -11490,22 +11490,22 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E19" t="s">
+        <v>416</v>
+      </c>
+      <c r="F19" t="s">
+        <v>416</v>
+      </c>
+      <c r="G19" t="s">
         <v>357</v>
       </c>
-      <c r="F19" t="s">
-        <v>357</v>
-      </c>
-      <c r="G19" t="s">
-        <v>358</v>
-      </c>
       <c r="J19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -11972,22 +11972,22 @@
         <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -11995,22 +11995,22 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -12018,22 +12018,22 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -12041,22 +12041,22 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -12064,22 +12064,22 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
+        <v>368</v>
+      </c>
+      <c r="D15" t="s">
         <v>369</v>
       </c>
-      <c r="D15" t="s">
-        <v>370</v>
-      </c>
       <c r="E15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -12087,22 +12087,22 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -12110,22 +12110,22 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -12133,22 +12133,22 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -12156,22 +12156,22 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D19" t="s">
+        <v>373</v>
+      </c>
+      <c r="E19" t="s">
+        <v>373</v>
+      </c>
+      <c r="F19" t="s">
         <v>374</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
         <v>374</v>
       </c>
-      <c r="F19" t="s">
-        <v>375</v>
-      </c>
-      <c r="G19" t="s">
-        <v>375</v>
-      </c>
       <c r="I19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -12601,10 +12601,10 @@
         <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -12612,10 +12612,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -12623,10 +12623,10 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -12634,10 +12634,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -12645,10 +12645,10 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -12656,10 +12656,10 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -12667,10 +12667,10 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
@@ -12678,10 +12678,10 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -12689,10 +12689,10 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
@@ -13115,7 +13115,7 @@
         <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -13123,7 +13123,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -13131,7 +13131,7 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -13139,7 +13139,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -13147,7 +13147,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -13155,7 +13155,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
@@ -13163,7 +13163,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -13171,7 +13171,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -13179,7 +13179,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -15171,22 +15171,22 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">

--- a/data/2015 Spring Season.xlsx
+++ b/data/2015 Spring Season.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9450" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9450" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Races" sheetId="46" r:id="rId1"/>
@@ -1899,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1983,7 +1983,7 @@
         <v>4.2075231481481486E-3</v>
       </c>
       <c r="E3" s="3">
-        <v>4.1636574074074076E-3</v>
+        <v>3.8159722222222223E-3</v>
       </c>
       <c r="F3" s="3">
         <v>3.9695601851851845E-3</v>
@@ -3920,8 +3920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3940,7 +3940,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="1">
-        <v>42091</v>
+        <v>42092</v>
       </c>
       <c r="D1" s="1">
         <v>42098</v>
@@ -5159,8 +5159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5187,7 +5187,7 @@
         <v>42084</v>
       </c>
       <c r="D1" s="1">
-        <v>42091</v>
+        <v>42092</v>
       </c>
       <c r="E1" s="1">
         <v>42098</v>
@@ -8427,7 +8427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>

--- a/data/2015 Spring Season.xlsx
+++ b/data/2015 Spring Season.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9450" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9450" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Races" sheetId="46" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="416">
   <si>
     <t>Jon Bachmann</t>
   </si>
@@ -366,9 +366,6 @@
   </si>
   <si>
     <t>Sebastian Devereux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edward Nainby-Luxmoore </t>
   </si>
   <si>
     <t xml:space="preserve">Jernej Markovc </t>
@@ -1945,7 +1942,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D2" t="s">
         <v>40</v>
@@ -2111,25 +2108,25 @@
         <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2137,25 +2134,25 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2163,25 +2160,25 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2189,25 +2186,25 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2215,25 +2212,25 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2241,25 +2238,25 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -2267,25 +2264,25 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -2293,25 +2290,25 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -2319,25 +2316,25 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -2786,16 +2783,16 @@
         <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2820,16 +2817,16 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2837,16 +2834,16 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2871,16 +2868,16 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -2888,16 +2885,16 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -2905,16 +2902,16 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -3245,7 +3242,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E2" t="s">
         <v>29</v>
@@ -3404,28 +3401,28 @@
         <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -3433,28 +3430,28 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -3462,28 +3459,28 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -3491,28 +3488,28 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -3520,28 +3517,28 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -3549,28 +3546,28 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
+        <v>278</v>
+      </c>
+      <c r="D16" t="s">
+        <v>278</v>
+      </c>
+      <c r="E16" t="s">
+        <v>278</v>
+      </c>
+      <c r="F16" t="s">
+        <v>278</v>
+      </c>
+      <c r="G16" t="s">
+        <v>275</v>
+      </c>
+      <c r="H16" t="s">
         <v>279</v>
       </c>
-      <c r="D16" t="s">
+      <c r="I16" t="s">
         <v>279</v>
       </c>
-      <c r="E16" t="s">
+      <c r="J16" t="s">
         <v>279</v>
-      </c>
-      <c r="F16" t="s">
-        <v>279</v>
-      </c>
-      <c r="G16" t="s">
-        <v>276</v>
-      </c>
-      <c r="H16" t="s">
-        <v>280</v>
-      </c>
-      <c r="I16" t="s">
-        <v>280</v>
-      </c>
-      <c r="J16" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -3578,28 +3575,28 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
+        <v>279</v>
+      </c>
+      <c r="D17" t="s">
+        <v>279</v>
+      </c>
+      <c r="E17" t="s">
+        <v>279</v>
+      </c>
+      <c r="F17" t="s">
+        <v>279</v>
+      </c>
+      <c r="G17" t="s">
+        <v>282</v>
+      </c>
+      <c r="H17" t="s">
+        <v>278</v>
+      </c>
+      <c r="I17" t="s">
+        <v>278</v>
+      </c>
+      <c r="J17" t="s">
         <v>280</v>
-      </c>
-      <c r="D17" t="s">
-        <v>280</v>
-      </c>
-      <c r="E17" t="s">
-        <v>280</v>
-      </c>
-      <c r="F17" t="s">
-        <v>280</v>
-      </c>
-      <c r="G17" t="s">
-        <v>283</v>
-      </c>
-      <c r="H17" t="s">
-        <v>279</v>
-      </c>
-      <c r="I17" t="s">
-        <v>279</v>
-      </c>
-      <c r="J17" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -3607,28 +3604,28 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
+        <v>280</v>
+      </c>
+      <c r="D18" t="s">
+        <v>280</v>
+      </c>
+      <c r="E18" t="s">
+        <v>280</v>
+      </c>
+      <c r="F18" t="s">
+        <v>275</v>
+      </c>
+      <c r="G18" t="s">
+        <v>278</v>
+      </c>
+      <c r="H18" t="s">
         <v>281</v>
       </c>
-      <c r="D18" t="s">
+      <c r="I18" t="s">
         <v>281</v>
       </c>
-      <c r="E18" t="s">
+      <c r="J18" t="s">
         <v>281</v>
-      </c>
-      <c r="F18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G18" t="s">
-        <v>279</v>
-      </c>
-      <c r="H18" t="s">
-        <v>282</v>
-      </c>
-      <c r="I18" t="s">
-        <v>282</v>
-      </c>
-      <c r="J18" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -3636,28 +3633,28 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -4161,22 +4158,22 @@
         <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -4184,22 +4181,22 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -4207,22 +4204,22 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -4230,22 +4227,22 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -4253,22 +4250,22 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -4276,22 +4273,22 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -4299,22 +4296,22 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -4322,22 +4319,22 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -4345,22 +4342,22 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -4833,7 +4830,7 @@
         <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -4841,7 +4838,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -4849,7 +4846,7 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -4857,7 +4854,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -4865,7 +4862,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -4873,7 +4870,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
@@ -4881,7 +4878,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -4889,7 +4886,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -4897,7 +4894,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -5159,7 +5156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -5996,28 +5993,28 @@
         <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -6025,28 +6022,28 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -6054,28 +6051,28 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -6083,28 +6080,28 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -6112,28 +6109,28 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -6141,28 +6138,28 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -6170,28 +6167,28 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -6199,28 +6196,28 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D18" t="s">
+        <v>309</v>
+      </c>
+      <c r="E18" t="s">
+        <v>309</v>
+      </c>
+      <c r="F18" t="s">
+        <v>309</v>
+      </c>
+      <c r="G18" t="s">
         <v>310</v>
       </c>
-      <c r="D18" t="s">
+      <c r="H18" t="s">
         <v>310</v>
       </c>
-      <c r="E18" t="s">
+      <c r="I18" t="s">
         <v>310</v>
       </c>
-      <c r="F18" t="s">
-        <v>310</v>
-      </c>
-      <c r="G18" t="s">
-        <v>311</v>
-      </c>
-      <c r="H18" t="s">
-        <v>311</v>
-      </c>
-      <c r="I18" t="s">
-        <v>311</v>
-      </c>
       <c r="K18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -6228,28 +6225,28 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G19" t="s">
+        <v>309</v>
+      </c>
+      <c r="H19" t="s">
+        <v>309</v>
+      </c>
+      <c r="I19" t="s">
+        <v>309</v>
+      </c>
+      <c r="K19" t="s">
         <v>310</v>
-      </c>
-      <c r="H19" t="s">
-        <v>310</v>
-      </c>
-      <c r="I19" t="s">
-        <v>310</v>
-      </c>
-      <c r="K19" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -6559,7 +6556,7 @@
         <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E2" t="s">
         <v>74</v>
@@ -6698,16 +6695,16 @@
         <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -6715,16 +6712,16 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -6732,16 +6729,16 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -6749,16 +6746,16 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -6766,16 +6763,16 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -6783,16 +6780,16 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D16" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E16" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G16" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -6800,16 +6797,16 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -6817,16 +6814,16 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -6834,16 +6831,16 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -7164,7 +7161,7 @@
         <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E2" t="s">
         <v>23</v>
@@ -7363,28 +7360,28 @@
         <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -7392,28 +7389,28 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -7421,28 +7418,28 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -7450,28 +7447,28 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -7479,28 +7476,28 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -7508,28 +7505,28 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
+        <v>317</v>
+      </c>
+      <c r="D16" t="s">
+        <v>316</v>
+      </c>
+      <c r="E16" t="s">
+        <v>316</v>
+      </c>
+      <c r="F16" t="s">
+        <v>316</v>
+      </c>
+      <c r="G16" t="s">
         <v>318</v>
       </c>
-      <c r="D16" t="s">
-        <v>317</v>
-      </c>
-      <c r="E16" t="s">
-        <v>317</v>
-      </c>
-      <c r="F16" t="s">
-        <v>317</v>
-      </c>
-      <c r="G16" t="s">
-        <v>319</v>
-      </c>
       <c r="H16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -7537,28 +7534,28 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
+        <v>318</v>
+      </c>
+      <c r="D17" t="s">
         <v>319</v>
       </c>
-      <c r="D17" t="s">
-        <v>320</v>
-      </c>
       <c r="E17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -7566,28 +7563,28 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -7595,28 +7592,28 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -8020,16 +8017,16 @@
         <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8037,16 +8034,16 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -8054,16 +8051,16 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D13" t="s">
         <v>333</v>
       </c>
-      <c r="D13" t="s">
-        <v>334</v>
-      </c>
       <c r="E13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -8071,16 +8068,16 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8088,16 +8085,16 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -8105,16 +8102,16 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
+        <v>335</v>
+      </c>
+      <c r="D16" t="s">
         <v>336</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>336</v>
+      </c>
+      <c r="F16" t="s">
         <v>337</v>
-      </c>
-      <c r="E16" t="s">
-        <v>337</v>
-      </c>
-      <c r="F16" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -8122,16 +8119,16 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
+        <v>336</v>
+      </c>
+      <c r="D17" t="s">
         <v>337</v>
       </c>
-      <c r="D17" t="s">
-        <v>338</v>
-      </c>
       <c r="E17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -8139,16 +8136,16 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
+        <v>337</v>
+      </c>
+      <c r="D18" t="s">
         <v>338</v>
       </c>
-      <c r="D18" t="s">
-        <v>339</v>
-      </c>
       <c r="E18" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -8156,16 +8153,16 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -8427,8 +8424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8483,7 +8480,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
@@ -8512,7 +8509,7 @@
         <v>3.9745370370370377E-3</v>
       </c>
       <c r="F3" s="6">
-        <v>3.9220601851851855E-3</v>
+        <v>3.9521296296296301E-3</v>
       </c>
       <c r="G3" s="6">
         <v>4.0023148148148153E-3</v>
@@ -8682,10 +8679,10 @@
         <v>85</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>85</v>
@@ -8817,16 +8814,16 @@
         <v>1</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>91</v>
@@ -8843,10 +8840,10 @@
         <v>98</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>98</v>
@@ -8855,7 +8852,7 @@
         <v>98</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -8866,10 +8863,10 @@
         <v>90</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>90</v>
@@ -8878,7 +8875,7 @@
         <v>90</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -8889,10 +8886,10 @@
         <v>91</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>95</v>
@@ -8901,7 +8898,7 @@
         <v>95</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -8912,10 +8909,10 @@
         <v>92</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>89</v>
@@ -8924,7 +8921,7 @@
         <v>89</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -8935,19 +8932,19 @@
         <v>93</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>93</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -8958,10 +8955,10 @@
         <v>94</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>94</v>
@@ -8970,7 +8967,7 @@
         <v>94</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -8981,10 +8978,10 @@
         <v>95</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>91</v>
@@ -8993,7 +8990,7 @@
         <v>85</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -9004,10 +9001,10 @@
         <v>96</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>96</v>
@@ -9016,7 +9013,7 @@
         <v>96</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -9027,10 +9024,10 @@
         <v>97</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>97</v>
@@ -9039,7 +9036,7 @@
         <v>97</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -9048,17 +9045,17 @@
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -9067,17 +9064,17 @@
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -9086,17 +9083,17 @@
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -9105,17 +9102,17 @@
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -9124,17 +9121,17 @@
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -9143,17 +9140,17 @@
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -9162,17 +9159,17 @@
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -9181,17 +9178,17 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
@@ -9200,17 +9197,17 @@
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
@@ -9419,19 +9416,19 @@
         <v>99</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>99</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
@@ -9442,10 +9439,10 @@
         <v>5</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F57" s="8" t="s">
         <v>5</v>
@@ -9454,7 +9451,7 @@
         <v>102</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
@@ -9465,10 +9462,10 @@
         <v>100</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>100</v>
@@ -9477,7 +9474,7 @@
         <v>100</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
@@ -9488,10 +9485,10 @@
         <v>7</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>7</v>
@@ -9500,7 +9497,7 @@
         <v>7</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
@@ -9511,19 +9508,19 @@
         <v>101</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
@@ -9534,10 +9531,10 @@
         <v>102</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F61" s="8" t="s">
         <v>102</v>
@@ -9546,7 +9543,7 @@
         <v>5</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
@@ -9557,10 +9554,10 @@
         <v>103</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F62" s="8" t="s">
         <v>103</v>
@@ -9569,7 +9566,7 @@
         <v>103</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
@@ -9580,19 +9577,19 @@
         <v>104</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
@@ -9603,10 +9600,10 @@
         <v>105</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F64" s="8" t="s">
         <v>101</v>
@@ -9615,7 +9612,7 @@
         <v>101</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
@@ -9626,13 +9623,13 @@
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
@@ -9643,13 +9640,13 @@
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
@@ -9660,13 +9657,13 @@
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
@@ -9677,13 +9674,13 @@
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
@@ -9694,13 +9691,13 @@
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G69" s="8" t="s">
         <v>105</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -9934,25 +9931,25 @@
         <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -9960,25 +9957,25 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -9986,25 +9983,25 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -10012,25 +10009,25 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -10038,25 +10035,25 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -10064,25 +10061,25 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -10090,25 +10087,25 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -10116,25 +10113,25 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -10145,22 +10142,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -10482,7 +10479,7 @@
         <v>73</v>
       </c>
       <c r="G2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H2" t="s">
         <v>45</v>
@@ -10622,19 +10619,19 @@
         <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -10642,19 +10639,19 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -10662,19 +10659,19 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -10682,19 +10679,19 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -10702,19 +10699,19 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -10722,19 +10719,19 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D16" t="s">
+        <v>410</v>
+      </c>
+      <c r="F16" t="s">
         <v>411</v>
       </c>
-      <c r="F16" t="s">
-        <v>412</v>
-      </c>
       <c r="G16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -10742,19 +10739,19 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F17" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G17" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H17" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -10762,19 +10759,19 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -10782,19 +10779,19 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D19" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F19" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G19" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H19" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -11306,22 +11303,22 @@
         <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -11329,22 +11326,22 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -11352,22 +11349,22 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -11375,22 +11372,22 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -11398,22 +11395,22 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
+        <v>355</v>
+      </c>
+      <c r="D15" t="s">
+        <v>355</v>
+      </c>
+      <c r="E15" t="s">
         <v>356</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
+        <v>359</v>
+      </c>
+      <c r="G15" t="s">
+        <v>359</v>
+      </c>
+      <c r="J15" t="s">
         <v>356</v>
-      </c>
-      <c r="E15" t="s">
-        <v>357</v>
-      </c>
-      <c r="F15" t="s">
-        <v>360</v>
-      </c>
-      <c r="G15" t="s">
-        <v>360</v>
-      </c>
-      <c r="J15" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -11421,22 +11418,22 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -11444,22 +11441,22 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -11467,22 +11464,22 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E18" t="s">
+        <v>355</v>
+      </c>
+      <c r="F18" t="s">
         <v>356</v>
       </c>
-      <c r="F18" t="s">
-        <v>357</v>
-      </c>
       <c r="G18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -11490,22 +11487,22 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E19" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F19" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -11972,22 +11969,22 @@
         <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -11995,22 +11992,22 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -12018,22 +12015,22 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -12041,22 +12038,22 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -12064,22 +12061,22 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
+        <v>367</v>
+      </c>
+      <c r="D15" t="s">
         <v>368</v>
       </c>
-      <c r="D15" t="s">
-        <v>369</v>
-      </c>
       <c r="E15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -12087,22 +12084,22 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -12110,22 +12107,22 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -12133,22 +12130,22 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -12156,22 +12153,22 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D19" t="s">
+        <v>372</v>
+      </c>
+      <c r="E19" t="s">
+        <v>372</v>
+      </c>
+      <c r="F19" t="s">
         <v>373</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
         <v>373</v>
       </c>
-      <c r="F19" t="s">
-        <v>374</v>
-      </c>
-      <c r="G19" t="s">
-        <v>374</v>
-      </c>
       <c r="I19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -12479,7 +12476,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -12601,10 +12598,10 @@
         <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -12612,10 +12609,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -12623,10 +12620,10 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -12634,10 +12631,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -12645,10 +12642,10 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -12656,10 +12653,10 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -12667,10 +12664,10 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
@@ -12678,10 +12675,10 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D18" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -12689,10 +12686,10 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D19" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
@@ -12993,7 +12990,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
         <v>45</v>
@@ -13115,7 +13112,7 @@
         <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -13123,7 +13120,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -13131,7 +13128,7 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -13139,7 +13136,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -13147,7 +13144,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -13155,7 +13152,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
@@ -13163,7 +13160,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -13171,7 +13168,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -13179,7 +13176,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -13669,22 +13666,22 @@
         <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -13692,22 +13689,22 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -13715,22 +13712,22 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -13738,22 +13735,22 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -13761,22 +13758,22 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E15" t="s">
+        <v>183</v>
+      </c>
+      <c r="F15" t="s">
+        <v>183</v>
+      </c>
+      <c r="G15" t="s">
+        <v>185</v>
+      </c>
+      <c r="H15" t="s">
         <v>184</v>
-      </c>
-      <c r="E15" t="s">
-        <v>184</v>
-      </c>
-      <c r="F15" t="s">
-        <v>184</v>
-      </c>
-      <c r="G15" t="s">
-        <v>186</v>
-      </c>
-      <c r="H15" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -13784,22 +13781,22 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -13807,22 +13804,22 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -13830,22 +13827,22 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E18" t="s">
+        <v>184</v>
+      </c>
+      <c r="F18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" t="s">
+        <v>180</v>
+      </c>
+      <c r="H18" t="s">
         <v>185</v>
-      </c>
-      <c r="D18" t="s">
-        <v>185</v>
-      </c>
-      <c r="E18" t="s">
-        <v>185</v>
-      </c>
-      <c r="F18" t="s">
-        <v>185</v>
-      </c>
-      <c r="G18" t="s">
-        <v>181</v>
-      </c>
-      <c r="H18" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -13853,22 +13850,22 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G19" t="s">
+        <v>179</v>
+      </c>
+      <c r="H19" t="s">
         <v>180</v>
-      </c>
-      <c r="H19" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -14200,7 +14197,7 @@
         <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I2" t="s">
         <v>18</v>
@@ -14342,28 +14339,28 @@
         <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -14371,28 +14368,28 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -14400,28 +14397,28 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E13" t="s">
         <v>193</v>
       </c>
-      <c r="D13" t="s">
-        <v>198</v>
-      </c>
-      <c r="E13" t="s">
-        <v>194</v>
-      </c>
       <c r="F13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -14429,28 +14426,28 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I14" t="s">
+        <v>198</v>
+      </c>
+      <c r="J14" t="s">
         <v>199</v>
-      </c>
-      <c r="J14" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -14458,28 +14455,28 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -14487,28 +14484,28 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -14516,28 +14513,28 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -14545,28 +14542,28 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D18" t="s">
+        <v>196</v>
+      </c>
+      <c r="E18" t="s">
         <v>197</v>
       </c>
-      <c r="E18" t="s">
-        <v>198</v>
-      </c>
       <c r="F18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -14574,28 +14571,28 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -14828,7 +14825,7 @@
         <v>82</v>
       </c>
       <c r="K65" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
@@ -14836,7 +14833,7 @@
         <v>4</v>
       </c>
       <c r="K66" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
@@ -14844,7 +14841,7 @@
         <v>3</v>
       </c>
       <c r="K67" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.25">
@@ -14852,7 +14849,7 @@
         <v>2</v>
       </c>
       <c r="K68" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
@@ -14860,7 +14857,7 @@
         <v>1</v>
       </c>
       <c r="K69" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -14929,7 +14926,7 @@
         <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
@@ -15079,22 +15076,22 @@
         <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -15102,22 +15099,22 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -15125,22 +15122,22 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -15148,22 +15145,22 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -15171,22 +15168,22 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -15194,22 +15191,22 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -15217,22 +15214,22 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -15240,22 +15237,22 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -15263,22 +15260,22 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -15595,7 +15592,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D2" t="s">
         <v>46</v>
@@ -15759,25 +15756,25 @@
         <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -15785,25 +15782,25 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -15811,25 +15808,25 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -15837,25 +15834,25 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -15863,25 +15860,25 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -15889,25 +15886,25 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -15915,25 +15912,25 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -15941,25 +15938,25 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -15967,25 +15964,25 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -16249,7 +16246,7 @@
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16466,13 +16463,13 @@
         <v>76</v>
       </c>
       <c r="F11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -16480,13 +16477,13 @@
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -16494,13 +16491,13 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -16508,13 +16505,13 @@
         <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -16522,13 +16519,13 @@
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -16536,13 +16533,13 @@
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -16550,13 +16547,13 @@
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -16564,13 +16561,13 @@
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -16578,13 +16575,13 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -17054,19 +17051,19 @@
         <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -17074,19 +17071,19 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E12" t="s">
         <v>229</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>229</v>
       </c>
-      <c r="E12" t="s">
-        <v>230</v>
-      </c>
-      <c r="F12" t="s">
-        <v>230</v>
-      </c>
       <c r="G12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -17114,19 +17111,19 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F14" t="s">
+        <v>228</v>
+      </c>
+      <c r="G14" t="s">
         <v>229</v>
-      </c>
-      <c r="F14" t="s">
-        <v>229</v>
-      </c>
-      <c r="G14" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -17154,19 +17151,19 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -17174,19 +17171,19 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -17194,19 +17191,19 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -17214,19 +17211,19 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -17720,25 +17717,25 @@
         <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -17746,25 +17743,25 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -17772,25 +17769,25 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -17798,25 +17795,25 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -17824,25 +17821,25 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -17850,25 +17847,25 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
+        <v>239</v>
+      </c>
+      <c r="D16" t="s">
+        <v>239</v>
+      </c>
+      <c r="E16" t="s">
+        <v>239</v>
+      </c>
+      <c r="F16" t="s">
         <v>240</v>
       </c>
-      <c r="D16" t="s">
-        <v>240</v>
-      </c>
-      <c r="E16" t="s">
-        <v>240</v>
-      </c>
-      <c r="F16" t="s">
-        <v>241</v>
-      </c>
       <c r="G16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -17876,25 +17873,25 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F17" t="s">
+        <v>239</v>
+      </c>
+      <c r="G17" t="s">
         <v>240</v>
       </c>
-      <c r="G17" t="s">
-        <v>241</v>
-      </c>
       <c r="I17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -17902,25 +17899,25 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -17928,25 +17925,25 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">

--- a/data/2015 Spring Season.xlsx
+++ b/data/2015 Spring Season.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="415">
   <si>
     <t>Jon Bachmann</t>
   </si>
@@ -1287,9 +1287,6 @@
   </si>
   <si>
     <t>Ryan Mallgrave</t>
-  </si>
-  <si>
-    <t>Gugliemo Carcano</t>
   </si>
   <si>
     <t>Aidan Daly-Jensen</t>
@@ -8425,7 +8422,7 @@
   <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8679,10 +8676,10 @@
         <v>85</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>413</v>
+        <v>85</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>413</v>
+        <v>85</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>85</v>
@@ -11418,10 +11415,10 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E16" t="s">
         <v>357</v>
@@ -11476,10 +11473,10 @@
         <v>356</v>
       </c>
       <c r="G18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -11493,10 +11490,10 @@
         <v>358</v>
       </c>
       <c r="E19" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F19" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G19" t="s">
         <v>356</v>
@@ -15168,22 +15165,22 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
